--- a/Reports/GUI.xlsx
+++ b/Reports/GUI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DATN20172\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DATN20172\FGS\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>Đăng nhập</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Bản đồ của khách sạn</t>
   </si>
   <si>
-    <t>Đánh giá</t>
-  </si>
-  <si>
     <t>Bình luận</t>
   </si>
   <si>
@@ -219,13 +216,31 @@
     <t>Các bình luận của người khác</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
+    <t>Khách sạn này không ổn lắm, quá đắt, chất lượng tạm được!</t>
   </si>
   <si>
-    <t>12/1/2018</t>
+    <t>Sắp xếp theo thời gian gần nhất</t>
   </si>
   <si>
-    <t>Khách sạn này không ổn lắm, quá đắt, chất lượng tạm được!</t>
+    <t>Thêm nhận xét của bạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xếp hạng </t>
+  </si>
+  <si>
+    <t>Phương Anh</t>
+  </si>
+  <si>
+    <t>Bạn</t>
+  </si>
+  <si>
+    <t>Nhân viên nhiệt tình, thân thiện, giúp khách vận chuyển hành lý. Phòng ốc sạch, khá thoáng. Nếu có cơ hội, tôi sẽ quay lại</t>
+  </si>
+  <si>
+    <t>Chất lượng khá tốt, giá cả hợp lý</t>
+  </si>
+  <si>
+    <t>Huy gà</t>
   </si>
 </sst>
 </file>
@@ -483,17 +498,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -506,134 +515,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,17 +557,164 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,6 +806,39 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2009524" cy="266667"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="2638425"/>
+          <a:ext cx="2009524" cy="266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -845,42 +920,309 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>80623</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2514601" y="8763000"/>
-          <a:ext cx="1966572" cy="447675"/>
+          <a:off x="1704975" y="11772900"/>
+          <a:ext cx="571500" cy="542925"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="11772900"/>
+          <a:ext cx="571500" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="11772900"/>
+          <a:ext cx="571500" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="12496800"/>
+          <a:ext cx="571500" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Oval 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="15754350"/>
+          <a:ext cx="571500" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1201,25 +1543,25 @@
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S3" s="29"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="15"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S4" s="7"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1234,48 +1576,48 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
-      <c r="AH4" s="8"/>
+      <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S5" s="7"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="3" t="s">
+      <c r="X5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
-      <c r="AH5" s="8"/>
+      <c r="AH5" s="6"/>
     </row>
     <row r="6" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S6" s="7"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="8"/>
+      <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S7" s="7"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1290,10 +1632,10 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
-      <c r="AH7" s="8"/>
+      <c r="AH7" s="6"/>
     </row>
     <row r="8" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S8" s="7"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1308,10 +1650,10 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="8"/>
+      <c r="AH8" s="6"/>
     </row>
     <row r="9" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S9" s="7"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1326,10 +1668,10 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="8"/>
+      <c r="AH9" s="6"/>
     </row>
     <row r="10" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S10" s="7"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1337,19 +1679,19 @@
         <v>1</v>
       </c>
       <c r="X10" s="1"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="8"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="38"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="6"/>
     </row>
     <row r="11" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S11" s="7"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1364,10 +1706,10 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="8"/>
+      <c r="AH11" s="6"/>
     </row>
     <row r="12" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S12" s="7"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1375,19 +1717,19 @@
         <v>2</v>
       </c>
       <c r="X12" s="1"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="8"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="6"/>
     </row>
     <row r="13" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S13" s="7"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1402,10 +1744,10 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="8"/>
+      <c r="AH13" s="6"/>
     </row>
     <row r="14" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S14" s="7"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1420,48 +1762,48 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
-      <c r="AH14" s="8"/>
+      <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S15" s="7"/>
+      <c r="S15" s="5"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-      <c r="X15" s="4" t="s">
+      <c r="X15" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
-      <c r="AH15" s="8"/>
+      <c r="AH15" s="6"/>
     </row>
     <row r="16" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
-      <c r="AH16" s="8"/>
+      <c r="AH16" s="6"/>
     </row>
     <row r="17" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S17" s="7"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -1476,10 +1818,10 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
-      <c r="AH17" s="8"/>
+      <c r="AH17" s="6"/>
     </row>
     <row r="18" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S18" s="7"/>
+      <c r="S18" s="5"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1494,10 +1836,10 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
-      <c r="AH18" s="8"/>
+      <c r="AH18" s="6"/>
     </row>
     <row r="19" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S19" s="7"/>
+      <c r="S19" s="5"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1512,10 +1854,10 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
-      <c r="AH19" s="8"/>
+      <c r="AH19" s="6"/>
     </row>
     <row r="20" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S20" s="7"/>
+      <c r="S20" s="5"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1530,10 +1872,10 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
-      <c r="AH20" s="8"/>
+      <c r="AH20" s="6"/>
     </row>
     <row r="21" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S21" s="7"/>
+      <c r="S21" s="5"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1548,10 +1890,10 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
-      <c r="AH21" s="8"/>
+      <c r="AH21" s="6"/>
     </row>
     <row r="22" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S22" s="7"/>
+      <c r="S22" s="5"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -1566,25 +1908,25 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
-      <c r="AH22" s="8"/>
+      <c r="AH22" s="6"/>
     </row>
     <row r="23" spans="19:34" x14ac:dyDescent="0.2">
-      <c r="S23" s="9"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="10"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1627,72 +1969,72 @@
       <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N5" s="29"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="15"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="13"/>
     </row>
     <row r="6" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N6" s="7"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="8"/>
+      <c r="AF6" s="6"/>
     </row>
     <row r="7" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N7" s="7"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="8"/>
+      <c r="AF7" s="6"/>
     </row>
     <row r="8" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N8" s="7"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1710,10 +2052,10 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="8"/>
+      <c r="AF8" s="6"/>
     </row>
     <row r="9" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N9" s="7"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1731,10 +2073,10 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
-      <c r="AF9" s="8"/>
+      <c r="AF9" s="6"/>
     </row>
     <row r="10" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N10" s="7"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1752,10 +2094,10 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
-      <c r="AF10" s="8"/>
+      <c r="AF10" s="6"/>
     </row>
     <row r="11" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N11" s="7"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1765,20 +2107,20 @@
         <v>31</v>
       </c>
       <c r="U11" s="1"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="24"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="39"/>
       <c r="AE11" s="1"/>
-      <c r="AF11" s="8"/>
+      <c r="AF11" s="6"/>
     </row>
     <row r="12" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N12" s="7"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1796,10 +2138,10 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="8"/>
+      <c r="AF12" s="6"/>
     </row>
     <row r="13" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N13" s="7"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -1809,20 +2151,20 @@
         <v>32</v>
       </c>
       <c r="U13" s="1"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="24"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="39"/>
       <c r="AE13" s="1"/>
-      <c r="AF13" s="8"/>
+      <c r="AF13" s="6"/>
     </row>
     <row r="14" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N14" s="7"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1840,10 +2182,10 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
-      <c r="AF14" s="8"/>
+      <c r="AF14" s="6"/>
     </row>
     <row r="15" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N15" s="7"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1853,20 +2195,20 @@
         <v>2</v>
       </c>
       <c r="U15" s="1"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="24"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="39"/>
       <c r="AE15" s="1"/>
-      <c r="AF15" s="8"/>
+      <c r="AF15" s="6"/>
     </row>
     <row r="16" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N16" s="7"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1884,10 +2226,10 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
-      <c r="AF16" s="8"/>
+      <c r="AF16" s="6"/>
     </row>
     <row r="17" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N17" s="7"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -1897,20 +2239,20 @@
         <v>33</v>
       </c>
       <c r="U17" s="1"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="24"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="39"/>
       <c r="AE17" s="1"/>
-      <c r="AF17" s="8"/>
+      <c r="AF17" s="6"/>
     </row>
     <row r="18" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N18" s="7"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -1928,10 +2270,10 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
-      <c r="AF18" s="8"/>
+      <c r="AF18" s="6"/>
     </row>
     <row r="19" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N19" s="7"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1941,20 +2283,20 @@
         <v>34</v>
       </c>
       <c r="U19" s="1"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="24"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="39"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="8"/>
+      <c r="AF19" s="6"/>
     </row>
     <row r="20" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N20" s="7"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1972,53 +2314,53 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
-      <c r="AF20" s="8"/>
+      <c r="AF20" s="6"/>
     </row>
     <row r="21" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N21" s="7"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="4" t="s">
+      <c r="U21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="8"/>
+      <c r="AF21" s="6"/>
     </row>
     <row r="22" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N22" s="7"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
-      <c r="AF22" s="8"/>
+      <c r="AF22" s="6"/>
     </row>
     <row r="23" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N23" s="7"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2030,28 +2372,28 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="8"/>
+      <c r="AF23" s="6"/>
     </row>
     <row r="24" spans="14:32" x14ac:dyDescent="0.2">
-      <c r="N24" s="9"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="10"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="8"/>
     </row>
     <row r="25" spans="14:32" x14ac:dyDescent="0.2">
       <c r="O25" s="1"/>
@@ -2089,63 +2431,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H4:AK35"/>
+  <dimension ref="H4:AK43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30:AJ31"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="AU39" sqref="AU39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33" t="s">
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
     </row>
     <row r="5" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H5" s="7"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="15"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="13"/>
     </row>
     <row r="6" spans="8:37" ht="15" x14ac:dyDescent="0.2">
-      <c r="H6" s="7"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="1"/>
@@ -2175,10 +2517,10 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="8"/>
+      <c r="AK6" s="6"/>
     </row>
     <row r="7" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H7" s="7"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2207,76 +2549,76 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="8"/>
+      <c r="AK7" s="6"/>
     </row>
     <row r="8" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H8" s="7"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="18"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="53"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="26" t="s">
+      <c r="AG8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="8"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="6"/>
     </row>
     <row r="9" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H9" s="7"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="21"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="56"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="8"/>
+      <c r="AG9" s="45"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="6"/>
     </row>
     <row r="10" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H10" s="7"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2305,11 +2647,11 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="8"/>
+      <c r="AK10" s="6"/>
     </row>
     <row r="11" spans="8:37" ht="15" x14ac:dyDescent="0.2">
-      <c r="H11" s="7"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="1"/>
@@ -2339,10 +2681,10 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="8"/>
+      <c r="AK11" s="6"/>
     </row>
     <row r="12" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H12" s="7"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2371,10 +2713,10 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="8"/>
+      <c r="AK12" s="6"/>
     </row>
     <row r="13" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H13" s="7"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2409,10 +2751,10 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="8"/>
+      <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="8:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="7"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
@@ -2443,10 +2785,10 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="8"/>
+      <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="8:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="7"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2457,38 +2799,38 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="28">
+      <c r="S15" s="4"/>
+      <c r="T15" s="16">
         <v>1</v>
       </c>
-      <c r="U15" s="6"/>
-      <c r="V15" s="28">
+      <c r="U15" s="4"/>
+      <c r="V15" s="16">
         <v>2</v>
       </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="28">
+      <c r="W15" s="4"/>
+      <c r="X15" s="16">
         <v>3</v>
       </c>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="13" t="s">
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AK15" s="8"/>
+      <c r="AK15" s="6"/>
     </row>
     <row r="16" spans="8:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="7"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2506,7 +2848,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="7" t="s">
+      <c r="Z16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="AA16" s="1"/>
@@ -2518,11 +2860,11 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="8"/>
-      <c r="AK16" s="8"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
     </row>
     <row r="17" spans="8:37" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="7"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2533,18 +2875,18 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="28">
+      <c r="S17" s="4"/>
+      <c r="T17" s="16">
         <v>4</v>
       </c>
-      <c r="U17" s="6"/>
-      <c r="V17" s="28">
+      <c r="U17" s="4"/>
+      <c r="V17" s="16">
         <v>5</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="7" t="s">
+      <c r="Z17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AA17" s="1"/>
@@ -2556,11 +2898,11 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="8"/>
-      <c r="AK17" s="8"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
     </row>
     <row r="18" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H18" s="7"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2578,7 +2920,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
-      <c r="Z18" s="7" t="s">
+      <c r="Z18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AA18" s="1"/>
@@ -2587,14 +2929,14 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="8"/>
+      <c r="AG18" s="6"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="8"/>
-      <c r="AK18" s="8"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
     </row>
     <row r="19" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H19" s="7"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2612,102 +2954,102 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="9" t="s">
+      <c r="Z19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="8"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="6"/>
     </row>
     <row r="20" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H20" s="9"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="10"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="8"/>
     </row>
     <row r="24" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="38"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="25" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H25" s="29"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="15"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="13"/>
     </row>
     <row r="26" spans="8:37" ht="15" x14ac:dyDescent="0.2">
-      <c r="H26" s="7"/>
-      <c r="I26" s="25" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="1"/>
@@ -2737,10 +3079,10 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
-      <c r="AK26" s="8"/>
+      <c r="AK26" s="6"/>
     </row>
     <row r="27" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H27" s="7"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2769,11 +3111,11 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
-      <c r="AK27" s="8"/>
+      <c r="AK27" s="6"/>
     </row>
     <row r="28" spans="8:37" ht="15" x14ac:dyDescent="0.2">
-      <c r="H28" s="7"/>
-      <c r="I28" s="25" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="14" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="1"/>
@@ -2805,10 +3147,10 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
-      <c r="AK28" s="8"/>
+      <c r="AK28" s="6"/>
     </row>
     <row r="29" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H29" s="7"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2837,89 +3179,89 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="8"/>
+      <c r="AK29" s="6"/>
     </row>
     <row r="30" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H30" s="7"/>
-      <c r="I30" s="11" t="s">
+      <c r="H30" s="5"/>
+      <c r="I30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="13" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="T30" s="1"/>
-      <c r="U30" s="11" t="s">
+      <c r="U30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="13" t="s">
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="26" t="s">
+      <c r="AG30" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="8"/>
+      <c r="AH30" s="45"/>
+      <c r="AI30" s="45"/>
+      <c r="AJ30" s="45"/>
+      <c r="AK30" s="6"/>
     </row>
     <row r="31" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H31" s="7"/>
-      <c r="I31" s="39" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="15"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="13"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="39" t="s">
+      <c r="U31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="15"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="13"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-      <c r="AJ31" s="26"/>
-      <c r="AK31" s="8"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="45"/>
+      <c r="AJ31" s="45"/>
+      <c r="AK31" s="6"/>
     </row>
     <row r="32" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H32" s="7"/>
-      <c r="I32" s="40" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="19" t="s">
         <v>23</v>
       </c>
       <c r="J32" s="1"/>
@@ -2931,9 +3273,9 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="8"/>
+      <c r="S32" s="6"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="40" t="s">
+      <c r="U32" s="19" t="s">
         <v>28</v>
       </c>
       <c r="V32" s="1"/>
@@ -2945,17 +3287,17 @@
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
-      <c r="AE32" s="8"/>
+      <c r="AE32" s="6"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="8"/>
+      <c r="AK32" s="6"/>
     </row>
     <row r="33" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H33" s="7"/>
-      <c r="I33" s="40" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="19" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="1"/>
@@ -2967,9 +3309,9 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="8"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="40" t="s">
+      <c r="U33" s="19" t="s">
         <v>29</v>
       </c>
       <c r="V33" s="1"/>
@@ -2981,81 +3323,355 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="8"/>
+      <c r="AE33" s="6"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="8"/>
+      <c r="AK33" s="6"/>
     </row>
     <row r="34" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H34" s="7"/>
-      <c r="I34" s="41" t="s">
+      <c r="H34" s="5"/>
+      <c r="I34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="10"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="8"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="41" t="s">
+      <c r="U34" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="10"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="8"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="8"/>
+      <c r="AK34" s="6"/>
     </row>
     <row r="35" spans="8:37" x14ac:dyDescent="0.2">
-      <c r="H35" s="9"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="10"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="6"/>
+    </row>
+    <row r="36" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H36" s="5"/>
+      <c r="I36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="6"/>
+    </row>
+    <row r="37" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H37" s="5"/>
+      <c r="I37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="6"/>
+    </row>
+    <row r="38" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H38" s="5"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="6"/>
+    </row>
+    <row r="39" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H39" s="5"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="6"/>
+    </row>
+    <row r="40" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="6"/>
+    </row>
+    <row r="41" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H41" s="5"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="6"/>
+    </row>
+    <row r="42" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H42" s="5"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="6"/>
+    </row>
+    <row r="43" spans="8:37" x14ac:dyDescent="0.2">
+      <c r="H43" s="7"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3075,57 +3691,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H6:AJ63"/>
+  <dimension ref="H6:AJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="AR62" sqref="AR62"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BC85" sqref="BC85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="15"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="13"/>
     </row>
     <row r="7" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="54"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="80"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
         <v>48</v>
@@ -3149,16 +3765,16 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="8"/>
+      <c r="AJ7" s="6"/>
     </row>
     <row r="8" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="80"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
         <v>49</v>
@@ -3182,16 +3798,16 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-      <c r="AJ8" s="8"/>
+      <c r="AJ8" s="6"/>
     </row>
     <row r="9" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="54"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="80"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -3208,23 +3824,23 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
-      <c r="AE9" s="22" t="s">
+      <c r="AE9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="8"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="6"/>
     </row>
     <row r="10" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="54"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
         <v>50</v>
@@ -3250,16 +3866,16 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="8"/>
+      <c r="AJ10" s="6"/>
     </row>
     <row r="11" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="80"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -3281,111 +3897,111 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-      <c r="AJ11" s="8"/>
+      <c r="AJ11" s="6"/>
     </row>
     <row r="12" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H12" s="55"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="10"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="8"/>
     </row>
     <row r="14" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="22" t="s">
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="22" t="s">
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="65" t="s">
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H15" s="29"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="13"/>
     </row>
     <row r="16" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H16" s="7"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3395,18 +4011,18 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="53" t="s">
+      <c r="R16" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="53"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="53"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -3415,10 +4031,10 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="8"/>
+      <c r="AJ16" s="6"/>
     </row>
     <row r="17" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H17" s="7"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3428,16 +4044,16 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="75"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="75"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
@@ -3446,10 +4062,10 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="8"/>
+      <c r="AJ17" s="6"/>
     </row>
     <row r="18" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H18" s="7"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3459,16 +4075,16 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
@@ -3477,10 +4093,10 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="8"/>
+      <c r="AJ18" s="6"/>
     </row>
     <row r="19" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H19" s="7"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -3490,16 +4106,16 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="75"/>
+      <c r="Y19" s="75"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="75"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -3508,10 +4124,10 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="8"/>
+      <c r="AJ19" s="6"/>
     </row>
     <row r="20" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H20" s="7"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -3521,16 +4137,16 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
@@ -3539,10 +4155,10 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="8"/>
+      <c r="AJ20" s="6"/>
     </row>
     <row r="21" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H21" s="7"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -3552,16 +4168,16 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="53"/>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -3570,10 +4186,10 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="8"/>
+      <c r="AJ21" s="6"/>
     </row>
     <row r="22" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H22" s="7"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -3583,16 +4199,16 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
@@ -3601,10 +4217,10 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="8"/>
+      <c r="AJ22" s="6"/>
     </row>
     <row r="23" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H23" s="7"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -3614,16 +4230,16 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -3632,10 +4248,10 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="8"/>
+      <c r="AJ23" s="6"/>
     </row>
     <row r="24" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H24" s="7"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -3645,16 +4261,16 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
@@ -3663,10 +4279,10 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="8"/>
+      <c r="AJ24" s="6"/>
     </row>
     <row r="25" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H25" s="7"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3676,16 +4292,16 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
@@ -3694,10 +4310,10 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="8"/>
+      <c r="AJ25" s="6"/>
     </row>
     <row r="26" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H26" s="7"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -3707,16 +4323,16 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="53"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -3725,10 +4341,10 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
-      <c r="AJ26" s="8"/>
+      <c r="AJ26" s="6"/>
     </row>
     <row r="27" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H27" s="7"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -3738,16 +4354,16 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -3756,10 +4372,10 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
-      <c r="AJ27" s="8"/>
+      <c r="AJ27" s="6"/>
     </row>
     <row r="28" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H28" s="7"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -3769,16 +4385,16 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
@@ -3787,111 +4403,111 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-      <c r="AJ28" s="8"/>
+      <c r="AJ28" s="6"/>
     </row>
     <row r="29" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H29" s="9"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="10"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="8"/>
     </row>
     <row r="31" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H31" s="59" t="s">
+      <c r="H31" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="62" t="s">
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="22" t="s">
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="65" t="s">
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H32" s="29"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="15"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="13"/>
     </row>
     <row r="33" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="1"/>
@@ -3903,16 +4519,16 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
@@ -3921,10 +4537,10 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
-      <c r="AJ33" s="8"/>
+      <c r="AJ33" s="6"/>
     </row>
     <row r="34" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H34" s="7"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -3934,16 +4550,16 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
@@ -3952,456 +4568,456 @@
       <c r="AG34" s="1"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="8"/>
+      <c r="AJ34" s="6"/>
     </row>
     <row r="35" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H35" s="7"/>
-      <c r="I35" s="53" t="s">
+      <c r="H35" s="5"/>
+      <c r="I35" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
-      <c r="U35" s="53"/>
-      <c r="V35" s="53"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="53"/>
-      <c r="Y35" s="53"/>
-      <c r="Z35" s="53"/>
-      <c r="AA35" s="53"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="53"/>
-      <c r="AD35" s="53"/>
-      <c r="AE35" s="53"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="8"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="6"/>
     </row>
     <row r="36" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H36" s="7"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
-      <c r="U36" s="53"/>
-      <c r="V36" s="53"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="53"/>
-      <c r="Y36" s="53"/>
-      <c r="Z36" s="53"/>
-      <c r="AA36" s="53"/>
-      <c r="AB36" s="53"/>
-      <c r="AC36" s="53"/>
-      <c r="AD36" s="53"/>
-      <c r="AE36" s="53"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53"/>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="8"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="75"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="75"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="6"/>
     </row>
     <row r="37" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H37" s="7"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="53"/>
-      <c r="Z37" s="53"/>
-      <c r="AA37" s="53"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
-      <c r="AD37" s="53"/>
-      <c r="AE37" s="53"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="8"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="75"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="75"/>
+      <c r="Y37" s="75"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="75"/>
+      <c r="AB37" s="75"/>
+      <c r="AC37" s="75"/>
+      <c r="AD37" s="75"/>
+      <c r="AE37" s="75"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="75"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="6"/>
     </row>
     <row r="38" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H38" s="7"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="53"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="53"/>
-      <c r="Y38" s="53"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="53"/>
-      <c r="AE38" s="53"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="8"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="75"/>
+      <c r="AD38" s="75"/>
+      <c r="AE38" s="75"/>
+      <c r="AF38" s="75"/>
+      <c r="AG38" s="75"/>
+      <c r="AH38" s="75"/>
+      <c r="AI38" s="75"/>
+      <c r="AJ38" s="6"/>
     </row>
     <row r="39" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H39" s="7"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="53"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="53"/>
-      <c r="Y39" s="53"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="53"/>
-      <c r="AE39" s="53"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="8"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="75"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="75"/>
+      <c r="Y39" s="75"/>
+      <c r="Z39" s="75"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75"/>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="6"/>
     </row>
     <row r="40" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H40" s="7"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="53"/>
-      <c r="Y40" s="53"/>
-      <c r="Z40" s="53"/>
-      <c r="AA40" s="53"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
-      <c r="AD40" s="53"/>
-      <c r="AE40" s="53"/>
-      <c r="AF40" s="53"/>
-      <c r="AG40" s="53"/>
-      <c r="AH40" s="53"/>
-      <c r="AI40" s="53"/>
-      <c r="AJ40" s="8"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="75"/>
+      <c r="AE40" s="75"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="75"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="6"/>
     </row>
     <row r="41" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H41" s="7"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
-      <c r="Q41" s="53"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="53"/>
-      <c r="T41" s="53"/>
-      <c r="U41" s="53"/>
-      <c r="V41" s="53"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="53"/>
-      <c r="Y41" s="53"/>
-      <c r="Z41" s="53"/>
-      <c r="AA41" s="53"/>
-      <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
-      <c r="AD41" s="53"/>
-      <c r="AE41" s="53"/>
-      <c r="AF41" s="53"/>
-      <c r="AG41" s="53"/>
-      <c r="AH41" s="53"/>
-      <c r="AI41" s="53"/>
-      <c r="AJ41" s="8"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="75"/>
+      <c r="AC41" s="75"/>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="75"/>
+      <c r="AF41" s="75"/>
+      <c r="AG41" s="75"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="6"/>
     </row>
     <row r="42" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H42" s="7"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="8"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="75"/>
+      <c r="Y42" s="75"/>
+      <c r="Z42" s="75"/>
+      <c r="AA42" s="75"/>
+      <c r="AB42" s="75"/>
+      <c r="AC42" s="75"/>
+      <c r="AD42" s="75"/>
+      <c r="AE42" s="75"/>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="75"/>
+      <c r="AH42" s="75"/>
+      <c r="AI42" s="75"/>
+      <c r="AJ42" s="6"/>
     </row>
     <row r="43" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H43" s="7"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="8"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="75"/>
+      <c r="U43" s="75"/>
+      <c r="V43" s="75"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="75"/>
+      <c r="Y43" s="75"/>
+      <c r="Z43" s="75"/>
+      <c r="AA43" s="75"/>
+      <c r="AB43" s="75"/>
+      <c r="AC43" s="75"/>
+      <c r="AD43" s="75"/>
+      <c r="AE43" s="75"/>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="75"/>
+      <c r="AH43" s="75"/>
+      <c r="AI43" s="75"/>
+      <c r="AJ43" s="6"/>
     </row>
     <row r="44" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H44" s="7"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="53"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="53"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="8"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="75"/>
+      <c r="U44" s="75"/>
+      <c r="V44" s="75"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="75"/>
+      <c r="Y44" s="75"/>
+      <c r="Z44" s="75"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="75"/>
+      <c r="AC44" s="75"/>
+      <c r="AD44" s="75"/>
+      <c r="AE44" s="75"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="75"/>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="75"/>
+      <c r="AJ44" s="6"/>
     </row>
     <row r="45" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H45" s="7"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-      <c r="Y45" s="53"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="8"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="75"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
+      <c r="AC45" s="75"/>
+      <c r="AD45" s="75"/>
+      <c r="AE45" s="75"/>
+      <c r="AF45" s="75"/>
+      <c r="AG45" s="75"/>
+      <c r="AH45" s="75"/>
+      <c r="AI45" s="75"/>
+      <c r="AJ45" s="6"/>
     </row>
     <row r="46" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H46" s="9"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="10"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AJ46" s="8"/>
     </row>
     <row r="48" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="61"/>
-      <c r="L48" s="59" t="s">
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="62" t="s">
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="64"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
-      <c r="AA48" s="12"/>
-      <c r="AB48" s="12"/>
-      <c r="AC48" s="12"/>
-      <c r="AD48" s="12"/>
-      <c r="AE48" s="12"/>
-      <c r="AF48" s="12"/>
-      <c r="AG48" s="12"/>
-      <c r="AH48" s="12"/>
-      <c r="AI48" s="12"/>
-      <c r="AJ48" s="65" t="s">
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="10"/>
+      <c r="AH48" s="10"/>
+      <c r="AI48" s="10"/>
+      <c r="AJ48" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H49" s="29"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="14"/>
-      <c r="AD49" s="14"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="15"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="13"/>
     </row>
     <row r="50" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H50" s="7"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -4411,16 +5027,16 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="58"/>
-      <c r="X50" s="58"/>
-      <c r="Y50" s="58"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+      <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
@@ -4429,10 +5045,10 @@
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
-      <c r="AJ50" s="8"/>
+      <c r="AJ50" s="6"/>
     </row>
     <row r="51" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H51" s="7"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -4442,16 +5058,16 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="58"/>
-      <c r="S51" s="58"/>
-      <c r="T51" s="58"/>
-      <c r="U51" s="58"/>
-      <c r="V51" s="58"/>
-      <c r="W51" s="58"/>
-      <c r="X51" s="58"/>
-      <c r="Y51" s="58"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="58"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+      <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
@@ -4460,414 +5076,1247 @@
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
-      <c r="AJ51" s="8"/>
+      <c r="AJ51" s="6"/>
     </row>
     <row r="52" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H52" s="7"/>
-      <c r="I52" s="58" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="9">
+        <v>1</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="6"/>
+    </row>
+    <row r="53" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H53" s="5"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="5">
+        <v>2</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="6"/>
+    </row>
+    <row r="54" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H54" s="5"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="5">
+        <v>3</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="1"/>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="6"/>
+    </row>
+    <row r="55" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H55" s="5"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="5">
+        <v>4</v>
+      </c>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="6"/>
+    </row>
+    <row r="56" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H56" s="5"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="6"/>
+    </row>
+    <row r="57" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H57" s="5"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="6"/>
+    </row>
+    <row r="58" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H58" s="5"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="6"/>
+    </row>
+    <row r="59" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H59" s="5"/>
+      <c r="I59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="28"/>
+      <c r="AE59" s="24"/>
+      <c r="AF59" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="67"/>
-      <c r="O52" s="67"/>
-      <c r="P52" s="67"/>
-      <c r="Q52" s="67"/>
-      <c r="R52" s="67"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="67"/>
-      <c r="Y52" s="67"/>
-      <c r="Z52" s="67"/>
-      <c r="AA52" s="67"/>
-      <c r="AB52" s="67"/>
-      <c r="AC52" s="67"/>
-      <c r="AD52" s="68"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="26" t="s">
+      <c r="AG59" s="45"/>
+      <c r="AH59" s="45"/>
+      <c r="AI59" s="45"/>
+      <c r="AJ59" s="6"/>
+    </row>
+    <row r="60" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H60" s="5"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="24"/>
+      <c r="AF60" s="45"/>
+      <c r="AG60" s="45"/>
+      <c r="AH60" s="45"/>
+      <c r="AI60" s="45"/>
+      <c r="AJ60" s="6"/>
+    </row>
+    <row r="61" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H61" s="5"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="24"/>
+      <c r="AF61" s="24"/>
+      <c r="AG61" s="24"/>
+      <c r="AH61" s="24"/>
+      <c r="AI61" s="24"/>
+      <c r="AJ61" s="6"/>
+    </row>
+    <row r="62" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H62" s="5"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+      <c r="AD62" s="33"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="24"/>
+      <c r="AH62" s="24"/>
+      <c r="AI62" s="24"/>
+      <c r="AJ62" s="6"/>
+    </row>
+    <row r="63" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H63" s="5"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="AJ63" s="6"/>
+    </row>
+    <row r="64" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H64" s="5"/>
+      <c r="I64" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="26"/>
-      <c r="AI52" s="26"/>
-      <c r="AJ52" s="8"/>
-    </row>
-    <row r="53" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H53" s="7"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
-      <c r="Q53" s="58"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="58"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="58"/>
-      <c r="W53" s="58"/>
-      <c r="X53" s="58"/>
-      <c r="Y53" s="58"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="58"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="70"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="26"/>
-      <c r="AI53" s="26"/>
-      <c r="AJ53" s="8"/>
-    </row>
-    <row r="54" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H54" s="7"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="69"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="58"/>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
-      <c r="R54" s="58"/>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="58"/>
-      <c r="W54" s="58"/>
-      <c r="X54" s="58"/>
-      <c r="Y54" s="58"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="70"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="58"/>
-      <c r="AJ54" s="8"/>
-    </row>
-    <row r="55" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H55" s="7"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="72"/>
-      <c r="Z55" s="72"/>
-      <c r="AA55" s="72"/>
-      <c r="AB55" s="72"/>
-      <c r="AC55" s="72"/>
-      <c r="AD55" s="73"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58"/>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="58"/>
-      <c r="AJ55" s="8"/>
-    </row>
-    <row r="56" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H56" s="7"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
-      <c r="Q56" s="58"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="58"/>
-      <c r="T56" s="58"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="58"/>
-      <c r="W56" s="58"/>
-      <c r="X56" s="58"/>
-      <c r="Y56" s="58"/>
-      <c r="Z56" s="58"/>
-      <c r="AA56" s="58"/>
-      <c r="AB56" s="58"/>
-      <c r="AC56" s="58"/>
-      <c r="AD56" s="58"/>
-      <c r="AE56" s="58"/>
-      <c r="AF56" s="58"/>
-      <c r="AG56" s="58"/>
-      <c r="AH56" s="58"/>
-      <c r="AI56" s="58"/>
-      <c r="AJ56" s="8"/>
-    </row>
-    <row r="57" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H57" s="7"/>
-      <c r="I57" s="58" t="s">
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="AJ64" s="6"/>
+    </row>
+    <row r="65" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H65" s="5"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="AJ65" s="6"/>
+    </row>
+    <row r="66" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H66" s="5"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N66" s="27"/>
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="27"/>
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="27"/>
+      <c r="AI66" s="28"/>
+      <c r="AJ66" s="6"/>
+    </row>
+    <row r="67" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H67" s="5"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="58"/>
-      <c r="U57" s="58"/>
-      <c r="V57" s="58"/>
-      <c r="W57" s="58"/>
-      <c r="X57" s="58"/>
-      <c r="Y57" s="58"/>
-      <c r="Z57" s="58"/>
-      <c r="AA57" s="58"/>
-      <c r="AB57" s="58"/>
-      <c r="AC57" s="58"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
-      <c r="AF57" s="58"/>
-      <c r="AG57" s="58"/>
-      <c r="AH57" s="58"/>
-      <c r="AI57" s="58"/>
-      <c r="AJ57" s="8"/>
-    </row>
-    <row r="58" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H58" s="7"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="58"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="58"/>
-      <c r="T58" s="58"/>
-      <c r="U58" s="58"/>
-      <c r="V58" s="58"/>
-      <c r="W58" s="58"/>
-      <c r="X58" s="58"/>
-      <c r="Y58" s="58"/>
-      <c r="Z58" s="58"/>
-      <c r="AA58" s="58"/>
-      <c r="AB58" s="58"/>
-      <c r="AC58" s="58"/>
-      <c r="AD58" s="58"/>
-      <c r="AE58" s="58"/>
-      <c r="AF58" s="58"/>
-      <c r="AG58" s="58"/>
-      <c r="AH58" s="58"/>
-      <c r="AI58" s="58"/>
-      <c r="AJ58" s="8"/>
-    </row>
-    <row r="59" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H59" s="7"/>
-      <c r="I59" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="68"/>
-      <c r="O59" s="49">
-        <v>7</v>
-      </c>
-      <c r="P59" s="51"/>
-      <c r="R59" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
-      <c r="W59" s="50"/>
-      <c r="X59" s="50"/>
-      <c r="Y59" s="50"/>
-      <c r="Z59" s="50"/>
-      <c r="AA59" s="50"/>
-      <c r="AB59" s="50"/>
-      <c r="AC59" s="50"/>
-      <c r="AD59" s="50"/>
-      <c r="AE59" s="50"/>
-      <c r="AF59" s="50"/>
-      <c r="AG59" s="50"/>
-      <c r="AH59" s="50"/>
-      <c r="AI59" s="51"/>
-      <c r="AJ59" s="8"/>
-    </row>
-    <row r="60" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H60" s="7"/>
-      <c r="I60" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="73"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="57"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="56"/>
-      <c r="AF60" s="56"/>
-      <c r="AG60" s="56"/>
-      <c r="AH60" s="56"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="8"/>
-    </row>
-    <row r="61" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H61" s="7"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
-      <c r="Q61" s="58"/>
-      <c r="R61" s="58"/>
-      <c r="S61" s="58"/>
-      <c r="T61" s="58"/>
-      <c r="U61" s="58"/>
-      <c r="V61" s="58"/>
-      <c r="W61" s="58"/>
-      <c r="X61" s="58"/>
-      <c r="Y61" s="58"/>
-      <c r="Z61" s="58"/>
-      <c r="AA61" s="58"/>
-      <c r="AB61" s="58"/>
-      <c r="AC61" s="58"/>
-      <c r="AD61" s="58"/>
-      <c r="AE61" s="58"/>
-      <c r="AF61" s="58"/>
-      <c r="AG61" s="58"/>
-      <c r="AH61" s="58"/>
-      <c r="AI61" s="58"/>
-      <c r="AJ61" s="8"/>
-    </row>
-    <row r="62" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H62" s="7"/>
-      <c r="I62" s="75" t="s">
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="58"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="58"/>
+      <c r="W67" s="58"/>
+      <c r="X67" s="58"/>
+      <c r="Y67" s="58"/>
+      <c r="Z67" s="58"/>
+      <c r="AA67" s="58"/>
+      <c r="AB67" s="58"/>
+      <c r="AC67" s="58"/>
+      <c r="AD67" s="58"/>
+      <c r="AE67" s="58"/>
+      <c r="AF67" s="58"/>
+      <c r="AG67" s="58"/>
+      <c r="AH67" s="58"/>
+      <c r="AI67" s="59"/>
+      <c r="AJ67" s="6"/>
+    </row>
+    <row r="68" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H68" s="5"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="61"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
+      <c r="AA68" s="61"/>
+      <c r="AB68" s="61"/>
+      <c r="AC68" s="61"/>
+      <c r="AD68" s="61"/>
+      <c r="AE68" s="61"/>
+      <c r="AF68" s="61"/>
+      <c r="AG68" s="61"/>
+      <c r="AH68" s="61"/>
+      <c r="AI68" s="62"/>
+      <c r="AJ68" s="6"/>
+    </row>
+    <row r="69" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H69" s="5"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="6"/>
+    </row>
+    <row r="70" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H70" s="5"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N70" s="27"/>
+      <c r="O70" s="27"/>
+      <c r="P70" s="27"/>
+      <c r="Q70" s="27"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="27"/>
+      <c r="U70" s="27"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
+      <c r="AF70" s="27"/>
+      <c r="AG70" s="27"/>
+      <c r="AH70" s="27"/>
+      <c r="AI70" s="28"/>
+      <c r="AJ70" s="6"/>
+    </row>
+    <row r="71" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H71" s="5"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="58"/>
+      <c r="R71" s="58"/>
+      <c r="S71" s="58"/>
+      <c r="T71" s="58"/>
+      <c r="U71" s="58"/>
+      <c r="V71" s="58"/>
+      <c r="W71" s="58"/>
+      <c r="X71" s="58"/>
+      <c r="Y71" s="58"/>
+      <c r="Z71" s="58"/>
+      <c r="AA71" s="58"/>
+      <c r="AB71" s="58"/>
+      <c r="AC71" s="58"/>
+      <c r="AD71" s="58"/>
+      <c r="AE71" s="58"/>
+      <c r="AF71" s="58"/>
+      <c r="AG71" s="58"/>
+      <c r="AH71" s="58"/>
+      <c r="AI71" s="59"/>
+      <c r="AJ71" s="6"/>
+    </row>
+    <row r="72" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H72" s="5"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
+      <c r="AF72" s="61"/>
+      <c r="AG72" s="61"/>
+      <c r="AH72" s="61"/>
+      <c r="AI72" s="62"/>
+      <c r="AJ72" s="6"/>
+    </row>
+    <row r="73" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H73" s="5"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="6"/>
+    </row>
+    <row r="74" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H74" s="5"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="75" t="s">
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P62" s="77"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="75" t="s">
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="6"/>
+    </row>
+    <row r="75" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H75" s="7"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="8"/>
+    </row>
+    <row r="77" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H77" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" s="70"/>
+      <c r="J77" s="70"/>
+      <c r="K77" s="71"/>
+      <c r="L77" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="M77" s="70"/>
+      <c r="N77" s="70"/>
+      <c r="O77" s="71"/>
+      <c r="P77" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q77" s="73"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="74"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+      <c r="Z77" s="10"/>
+      <c r="AA77" s="10"/>
+      <c r="AB77" s="10"/>
+      <c r="AC77" s="10"/>
+      <c r="AD77" s="10"/>
+      <c r="AE77" s="10"/>
+      <c r="AF77" s="10"/>
+      <c r="AG77" s="10"/>
+      <c r="AH77" s="10"/>
+      <c r="AI77" s="10"/>
+      <c r="AJ77" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="8:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="5"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="24"/>
+      <c r="S78" s="24"/>
+      <c r="T78" s="24"/>
+      <c r="U78" s="24"/>
+      <c r="V78" s="24"/>
+      <c r="W78" s="24"/>
+      <c r="X78" s="24"/>
+      <c r="Y78" s="24"/>
+      <c r="Z78" s="24"/>
+      <c r="AA78" s="24"/>
+      <c r="AB78" s="24"/>
+      <c r="AC78" s="24"/>
+      <c r="AD78" s="24"/>
+      <c r="AE78" s="24"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="34"/>
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="6"/>
+    </row>
+    <row r="79" spans="8:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="5"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="27"/>
+      <c r="R79" s="27"/>
+      <c r="S79" s="27"/>
+      <c r="T79" s="27"/>
+      <c r="U79" s="27"/>
+      <c r="V79" s="27"/>
+      <c r="W79" s="27"/>
+      <c r="X79" s="27"/>
+      <c r="Y79" s="27"/>
+      <c r="Z79" s="27"/>
+      <c r="AA79" s="27"/>
+      <c r="AB79" s="27"/>
+      <c r="AC79" s="27"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="27"/>
+      <c r="AF79" s="27"/>
+      <c r="AG79" s="27"/>
+      <c r="AH79" s="27"/>
+      <c r="AI79" s="28"/>
+      <c r="AJ79" s="6"/>
+    </row>
+    <row r="80" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H80" s="5"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="N80" s="64"/>
+      <c r="O80" s="64"/>
+      <c r="P80" s="64"/>
+      <c r="Q80" s="64"/>
+      <c r="R80" s="64"/>
+      <c r="S80" s="64"/>
+      <c r="T80" s="64"/>
+      <c r="U80" s="64"/>
+      <c r="V80" s="64"/>
+      <c r="W80" s="64"/>
+      <c r="X80" s="64"/>
+      <c r="Y80" s="64"/>
+      <c r="Z80" s="64"/>
+      <c r="AA80" s="64"/>
+      <c r="AB80" s="64"/>
+      <c r="AC80" s="64"/>
+      <c r="AD80" s="64"/>
+      <c r="AE80" s="64"/>
+      <c r="AF80" s="64"/>
+      <c r="AG80" s="64"/>
+      <c r="AH80" s="64"/>
+      <c r="AI80" s="65"/>
+      <c r="AJ80" s="6"/>
+    </row>
+    <row r="81" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H81" s="5"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="67"/>
+      <c r="O81" s="67"/>
+      <c r="P81" s="67"/>
+      <c r="Q81" s="67"/>
+      <c r="R81" s="67"/>
+      <c r="S81" s="67"/>
+      <c r="T81" s="67"/>
+      <c r="U81" s="67"/>
+      <c r="V81" s="67"/>
+      <c r="W81" s="67"/>
+      <c r="X81" s="67"/>
+      <c r="Y81" s="67"/>
+      <c r="Z81" s="67"/>
+      <c r="AA81" s="67"/>
+      <c r="AB81" s="67"/>
+      <c r="AC81" s="67"/>
+      <c r="AD81" s="67"/>
+      <c r="AE81" s="67"/>
+      <c r="AF81" s="67"/>
+      <c r="AG81" s="67"/>
+      <c r="AH81" s="67"/>
+      <c r="AI81" s="68"/>
+      <c r="AJ81" s="6"/>
+    </row>
+    <row r="82" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H82" s="5"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="AJ82" s="6"/>
+    </row>
+    <row r="83" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H83" s="5"/>
+      <c r="I83" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="AJ83" s="6"/>
+    </row>
+    <row r="84" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H84" s="5"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="AJ84" s="6"/>
+    </row>
+    <row r="85" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H85" s="5"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
+      <c r="V85" s="27"/>
+      <c r="W85" s="27"/>
+      <c r="X85" s="27"/>
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="27"/>
+      <c r="AH85" s="27"/>
+      <c r="AI85" s="28"/>
+      <c r="AJ85" s="6"/>
+    </row>
+    <row r="86" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H86" s="5"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="58"/>
+      <c r="R86" s="58"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="58"/>
+      <c r="U86" s="58"/>
+      <c r="V86" s="58"/>
+      <c r="W86" s="58"/>
+      <c r="X86" s="58"/>
+      <c r="Y86" s="58"/>
+      <c r="Z86" s="58"/>
+      <c r="AA86" s="58"/>
+      <c r="AB86" s="58"/>
+      <c r="AC86" s="58"/>
+      <c r="AD86" s="58"/>
+      <c r="AE86" s="58"/>
+      <c r="AF86" s="58"/>
+      <c r="AG86" s="58"/>
+      <c r="AH86" s="58"/>
+      <c r="AI86" s="59"/>
+      <c r="AJ86" s="6"/>
+    </row>
+    <row r="87" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H87" s="5"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="61"/>
+      <c r="O87" s="61"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="61"/>
+      <c r="R87" s="61"/>
+      <c r="S87" s="61"/>
+      <c r="T87" s="61"/>
+      <c r="U87" s="61"/>
+      <c r="V87" s="61"/>
+      <c r="W87" s="61"/>
+      <c r="X87" s="61"/>
+      <c r="Y87" s="61"/>
+      <c r="Z87" s="61"/>
+      <c r="AA87" s="61"/>
+      <c r="AB87" s="61"/>
+      <c r="AC87" s="61"/>
+      <c r="AD87" s="61"/>
+      <c r="AE87" s="61"/>
+      <c r="AF87" s="61"/>
+      <c r="AG87" s="61"/>
+      <c r="AH87" s="61"/>
+      <c r="AI87" s="62"/>
+      <c r="AJ87" s="6"/>
+    </row>
+    <row r="88" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H88" s="5"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="O88" s="24"/>
+      <c r="P88" s="24"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="24"/>
+      <c r="S88" s="24"/>
+      <c r="T88" s="24"/>
+      <c r="U88" s="24"/>
+      <c r="V88" s="24"/>
+      <c r="W88" s="24"/>
+      <c r="X88" s="24"/>
+      <c r="Y88" s="24"/>
+      <c r="Z88" s="24"/>
+      <c r="AA88" s="24"/>
+      <c r="AB88" s="24"/>
+      <c r="AC88" s="24"/>
+      <c r="AD88" s="24"/>
+      <c r="AE88" s="24"/>
+      <c r="AF88" s="24"/>
+      <c r="AG88" s="24"/>
+      <c r="AH88" s="24"/>
+      <c r="AI88" s="24"/>
+      <c r="AJ88" s="6"/>
+    </row>
+    <row r="89" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H89" s="5"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="27"/>
+      <c r="T89" s="27"/>
+      <c r="U89" s="27"/>
+      <c r="V89" s="27"/>
+      <c r="W89" s="27"/>
+      <c r="X89" s="27"/>
+      <c r="Y89" s="27"/>
+      <c r="Z89" s="27"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+      <c r="AF89" s="27"/>
+      <c r="AG89" s="27"/>
+      <c r="AH89" s="27"/>
+      <c r="AI89" s="28"/>
+      <c r="AJ89" s="6"/>
+    </row>
+    <row r="90" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H90" s="5"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="N90" s="58"/>
+      <c r="O90" s="58"/>
+      <c r="P90" s="58"/>
+      <c r="Q90" s="58"/>
+      <c r="R90" s="58"/>
+      <c r="S90" s="58"/>
+      <c r="T90" s="58"/>
+      <c r="U90" s="58"/>
+      <c r="V90" s="58"/>
+      <c r="W90" s="58"/>
+      <c r="X90" s="58"/>
+      <c r="Y90" s="58"/>
+      <c r="Z90" s="58"/>
+      <c r="AA90" s="58"/>
+      <c r="AB90" s="58"/>
+      <c r="AC90" s="58"/>
+      <c r="AD90" s="58"/>
+      <c r="AE90" s="58"/>
+      <c r="AF90" s="58"/>
+      <c r="AG90" s="58"/>
+      <c r="AH90" s="58"/>
+      <c r="AI90" s="59"/>
+      <c r="AJ90" s="6"/>
+    </row>
+    <row r="91" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H91" s="5"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="61"/>
+      <c r="O91" s="61"/>
+      <c r="P91" s="61"/>
+      <c r="Q91" s="61"/>
+      <c r="R91" s="61"/>
+      <c r="S91" s="61"/>
+      <c r="T91" s="61"/>
+      <c r="U91" s="61"/>
+      <c r="V91" s="61"/>
+      <c r="W91" s="61"/>
+      <c r="X91" s="61"/>
+      <c r="Y91" s="61"/>
+      <c r="Z91" s="61"/>
+      <c r="AA91" s="61"/>
+      <c r="AB91" s="61"/>
+      <c r="AC91" s="61"/>
+      <c r="AD91" s="61"/>
+      <c r="AE91" s="61"/>
+      <c r="AF91" s="61"/>
+      <c r="AG91" s="61"/>
+      <c r="AH91" s="61"/>
+      <c r="AI91" s="62"/>
+      <c r="AJ91" s="6"/>
+    </row>
+    <row r="92" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H92" s="5"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="X92" s="1"/>
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1"/>
+      <c r="AA92" s="1"/>
+      <c r="AB92" s="1"/>
+      <c r="AC92" s="1"/>
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="1"/>
+      <c r="AF92" s="1"/>
+      <c r="AG92" s="1"/>
+      <c r="AH92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AJ92" s="6"/>
+    </row>
+    <row r="93" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H93" s="5"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
-      <c r="U62" s="76"/>
-      <c r="V62" s="76"/>
-      <c r="W62" s="76"/>
-      <c r="X62" s="76"/>
-      <c r="Y62" s="76"/>
-      <c r="Z62" s="76"/>
-      <c r="AA62" s="76"/>
-      <c r="AB62" s="76"/>
-      <c r="AC62" s="76"/>
-      <c r="AD62" s="76"/>
-      <c r="AE62" s="76"/>
-      <c r="AF62" s="76"/>
-      <c r="AG62" s="76"/>
-      <c r="AH62" s="76"/>
-      <c r="AI62" s="77"/>
-      <c r="AJ62" s="8"/>
-    </row>
-    <row r="63" spans="8:36" x14ac:dyDescent="0.2">
-      <c r="H63" s="9"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
-      <c r="AE63" s="5"/>
-      <c r="AF63" s="5"/>
-      <c r="AG63" s="5"/>
-      <c r="AH63" s="5"/>
-      <c r="AI63" s="5"/>
-      <c r="AJ63" s="10"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="6"/>
+    </row>
+    <row r="94" spans="8:36" x14ac:dyDescent="0.2">
+      <c r="H94" s="7"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+      <c r="AC94" s="3"/>
+      <c r="AD94" s="3"/>
+      <c r="AE94" s="3"/>
+      <c r="AF94" s="3"/>
+      <c r="AG94" s="3"/>
+      <c r="AH94" s="3"/>
+      <c r="AI94" s="3"/>
+      <c r="AJ94" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="P48:S48"/>
-    <mergeCell ref="AF52:AI53"/>
-    <mergeCell ref="R59:AI60"/>
-    <mergeCell ref="O59:P60"/>
+  <mergeCells count="22">
+    <mergeCell ref="H6:N12"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:S14"/>
     <mergeCell ref="R16:AA28"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:O31"/>
     <mergeCell ref="P31:S31"/>
     <mergeCell ref="I35:AI45"/>
-    <mergeCell ref="H6:N12"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="P48:S48"/>
+    <mergeCell ref="AF59:AI60"/>
+    <mergeCell ref="M67:AI68"/>
+    <mergeCell ref="M86:AI87"/>
+    <mergeCell ref="M90:AI91"/>
+    <mergeCell ref="M80:AI81"/>
+    <mergeCell ref="M71:AI72"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="P77:S77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4879,42 +6328,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M3:AK50"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12"/>
+    <sheetView topLeftCell="A28" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M3" s="29"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="15"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="13"/>
     </row>
     <row r="4" spans="13:37" ht="15" x14ac:dyDescent="0.2">
-      <c r="M4" s="7"/>
-      <c r="N4" s="25" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="14" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="1"/>
@@ -4941,77 +6390,77 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="8"/>
+      <c r="AK4" s="6"/>
     </row>
     <row r="5" spans="13:37" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M5" s="7"/>
-      <c r="N5" s="11" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="13" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="13" t="s">
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AK5" s="8"/>
+      <c r="AK5" s="6"/>
     </row>
     <row r="6" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M6" s="7"/>
-      <c r="N6" s="39" t="s">
+      <c r="M6" s="5"/>
+      <c r="N6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="13"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="39" t="s">
+      <c r="Z6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="8"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="6"/>
     </row>
     <row r="7" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M7" s="7"/>
-      <c r="N7" s="40" t="s">
+      <c r="M7" s="5"/>
+      <c r="N7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="O7" s="1"/>
@@ -5023,9 +6472,9 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="8"/>
+      <c r="X7" s="6"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="40" t="s">
+      <c r="Z7" s="19" t="s">
         <v>28</v>
       </c>
       <c r="AA7" s="1"/>
@@ -5037,12 +6486,12 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
     </row>
     <row r="8" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M8" s="7"/>
-      <c r="N8" s="40" t="s">
+      <c r="M8" s="5"/>
+      <c r="N8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="O8" s="1"/>
@@ -5054,9 +6503,9 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="8"/>
+      <c r="X8" s="6"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="40" t="s">
+      <c r="Z8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="AA8" s="1"/>
@@ -5068,42 +6517,42 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-      <c r="AJ8" s="8"/>
-      <c r="AK8" s="8"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
     </row>
     <row r="9" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M9" s="7"/>
-      <c r="N9" s="41" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="10"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="8"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="41" t="s">
+      <c r="Z9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="8"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="6"/>
     </row>
     <row r="10" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M10" s="7"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -5127,10 +6576,10 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="8"/>
+      <c r="AK10" s="6"/>
     </row>
     <row r="11" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M11" s="7"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="1" t="s">
         <v>35</v>
       </c>
@@ -5156,37 +6605,37 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="8"/>
+      <c r="AK11" s="6"/>
     </row>
     <row r="12" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M12" s="7"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="8"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="38"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="38"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="6"/>
     </row>
     <row r="13" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M13" s="7"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -5210,10 +6659,10 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="8"/>
+      <c r="AK13" s="6"/>
     </row>
     <row r="14" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M14" s="7"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="1" t="s">
         <v>36</v>
       </c>
@@ -5239,37 +6688,37 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="8"/>
+      <c r="AK14" s="6"/>
     </row>
     <row r="15" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M15" s="7"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="8"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="6"/>
     </row>
     <row r="16" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M16" s="7"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -5293,10 +6742,10 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="8"/>
+      <c r="AK16" s="6"/>
     </row>
     <row r="17" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M17" s="7"/>
+      <c r="M17" s="5"/>
       <c r="N17" s="1" t="s">
         <v>37</v>
       </c>
@@ -5322,37 +6771,37 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-      <c r="AK17" s="8"/>
+      <c r="AK17" s="6"/>
     </row>
     <row r="18" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M18" s="7"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="8"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="6"/>
     </row>
     <row r="19" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M19" s="7"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -5376,10 +6825,10 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="8"/>
+      <c r="AK19" s="6"/>
     </row>
     <row r="20" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M20" s="7"/>
+      <c r="M20" s="5"/>
       <c r="N20" s="1" t="s">
         <v>38</v>
       </c>
@@ -5405,37 +6854,37 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="8"/>
+      <c r="AK20" s="6"/>
     </row>
     <row r="21" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M21" s="7"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="8"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="6"/>
     </row>
     <row r="22" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M22" s="7"/>
+      <c r="M22" s="5"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -5459,10 +6908,10 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
-      <c r="AK22" s="8"/>
+      <c r="AK22" s="6"/>
     </row>
     <row r="23" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M23" s="7"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1" t="s">
         <v>39</v>
       </c>
@@ -5488,38 +6937,38 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
-      <c r="AK23" s="8"/>
+      <c r="AK23" s="6"/>
     </row>
     <row r="24" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M24" s="7"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="44"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44"/>
-      <c r="AJ24" s="45"/>
-      <c r="AK24" s="8"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="6"/>
     </row>
     <row r="25" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -5541,12 +6990,12 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
     </row>
     <row r="26" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -5568,12 +7017,12 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
     </row>
     <row r="27" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -5595,38 +7044,38 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
     </row>
     <row r="28" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M28" s="7"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="8"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="6"/>
     </row>
     <row r="29" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M29" s="7"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -5650,10 +7099,10 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
-      <c r="AK29" s="8"/>
+      <c r="AK29" s="6"/>
     </row>
     <row r="30" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M30" s="7"/>
+      <c r="M30" s="5"/>
       <c r="N30" s="1" t="s">
         <v>40</v>
       </c>
@@ -5679,10 +7128,10 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
-      <c r="AK30" s="8"/>
+      <c r="AK30" s="6"/>
     </row>
     <row r="31" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M31" s="7"/>
+      <c r="M31" s="5"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -5706,10 +7155,10 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
-      <c r="AK31" s="8"/>
+      <c r="AK31" s="6"/>
     </row>
     <row r="32" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M32" s="7"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -5733,10 +7182,10 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="8"/>
+      <c r="AK32" s="6"/>
     </row>
     <row r="33" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M33" s="7"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -5760,10 +7209,10 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
-      <c r="AK33" s="8"/>
+      <c r="AK33" s="6"/>
     </row>
     <row r="34" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M34" s="7"/>
+      <c r="M34" s="5"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -5787,10 +7236,10 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="8"/>
+      <c r="AK34" s="6"/>
     </row>
     <row r="35" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M35" s="7"/>
+      <c r="M35" s="5"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -5814,10 +7263,10 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
-      <c r="AK35" s="8"/>
+      <c r="AK35" s="6"/>
     </row>
     <row r="36" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M36" s="7"/>
+      <c r="M36" s="5"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -5841,10 +7290,10 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
-      <c r="AK36" s="8"/>
+      <c r="AK36" s="6"/>
     </row>
     <row r="37" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M37" s="7"/>
+      <c r="M37" s="5"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -5868,37 +7317,37 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-      <c r="AK37" s="8"/>
+      <c r="AK37" s="6"/>
     </row>
     <row r="38" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M38" s="7"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="8"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="6"/>
     </row>
     <row r="39" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M39" s="7"/>
+      <c r="M39" s="5"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -5922,10 +7371,10 @@
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
-      <c r="AK39" s="8"/>
+      <c r="AK39" s="6"/>
     </row>
     <row r="40" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M40" s="7"/>
+      <c r="M40" s="5"/>
       <c r="N40" s="1" t="s">
         <v>41</v>
       </c>
@@ -5951,10 +7400,10 @@
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
-      <c r="AK40" s="8"/>
+      <c r="AK40" s="6"/>
     </row>
     <row r="41" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M41" s="7"/>
+      <c r="M41" s="5"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -5978,39 +7427,39 @@
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
-      <c r="AK41" s="8"/>
+      <c r="AK41" s="6"/>
     </row>
     <row r="42" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M42" s="7"/>
-      <c r="N42" s="46" t="s">
+      <c r="M42" s="5"/>
+      <c r="N42" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="47"/>
-      <c r="AI42" s="47"/>
-      <c r="AJ42" s="48"/>
-      <c r="AK42" s="8"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="85"/>
+      <c r="AC42" s="85"/>
+      <c r="AD42" s="85"/>
+      <c r="AE42" s="85"/>
+      <c r="AF42" s="85"/>
+      <c r="AG42" s="85"/>
+      <c r="AH42" s="85"/>
+      <c r="AI42" s="85"/>
+      <c r="AJ42" s="86"/>
+      <c r="AK42" s="6"/>
     </row>
     <row r="43" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M43" s="7"/>
+      <c r="M43" s="5"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -6034,39 +7483,39 @@
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
-      <c r="AK43" s="8"/>
+      <c r="AK43" s="6"/>
     </row>
     <row r="44" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M44" s="7"/>
-      <c r="N44" s="46" t="s">
+      <c r="M44" s="5"/>
+      <c r="N44" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47"/>
-      <c r="AG44" s="47"/>
-      <c r="AH44" s="47"/>
-      <c r="AI44" s="47"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="8"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="85"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="85"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="85"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="85"/>
+      <c r="AI44" s="85"/>
+      <c r="AJ44" s="86"/>
+      <c r="AK44" s="6"/>
     </row>
     <row r="45" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M45" s="7"/>
+      <c r="M45" s="5"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -6090,39 +7539,39 @@
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
-      <c r="AK45" s="8"/>
+      <c r="AK45" s="6"/>
     </row>
     <row r="46" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M46" s="7"/>
-      <c r="N46" s="46" t="s">
+      <c r="M46" s="5"/>
+      <c r="N46" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="47"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="47"/>
-      <c r="X46" s="47"/>
-      <c r="Y46" s="47"/>
-      <c r="Z46" s="47"/>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="47"/>
-      <c r="AF46" s="47"/>
-      <c r="AG46" s="47"/>
-      <c r="AH46" s="47"/>
-      <c r="AI46" s="47"/>
-      <c r="AJ46" s="48"/>
-      <c r="AK46" s="8"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="85"/>
+      <c r="AI46" s="85"/>
+      <c r="AJ46" s="86"/>
+      <c r="AK46" s="6"/>
     </row>
     <row r="47" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M47" s="7"/>
+      <c r="M47" s="5"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -6146,16 +7595,16 @@
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
-      <c r="AK47" s="8"/>
+      <c r="AK47" s="6"/>
     </row>
     <row r="48" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M48" s="7"/>
-      <c r="N48" s="26" t="s">
+      <c r="M48" s="5"/>
+      <c r="N48" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -6175,14 +7624,14 @@
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
-      <c r="AK48" s="8"/>
+      <c r="AK48" s="6"/>
     </row>
     <row r="49" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M49" s="7"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
@@ -6202,34 +7651,34 @@
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
-      <c r="AK49" s="8"/>
+      <c r="AK49" s="6"/>
     </row>
     <row r="50" spans="13:37" x14ac:dyDescent="0.2">
-      <c r="M50" s="9"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="10"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="3"/>
+      <c r="AK50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
